--- a/BData.xlsx
+++ b/BData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Rang</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>2027H0801</t>
+  </si>
+  <si>
+    <t>2027H0701</t>
+  </si>
+  <si>
+    <t>2027H0101</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -143,7 +158,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -451,13 +506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -508,7 +566,7 @@
         <v>444</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>20.309999999999999</v>
@@ -516,12 +574,54 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25">
+      <c r="A4" s="5">
+        <v>456</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25">
+      <c r="A5" s="5">
+        <v>667</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
